--- a/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919A392F-B3FA-4583-88A4-5A8B14FC2E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55064FE-216B-4FCA-B123-2654A45660A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE97EC01-C3A1-41CD-AEEE-D65DE7F5EDF7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA215FAD-B6A4-411F-AF6A-13E727C9F817}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="191">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>78,47%</t>
   </si>
   <si>
-    <t>18,36%</t>
+    <t>18,69%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>91,2%</t>
   </si>
   <si>
-    <t>63,96%</t>
+    <t>63,65%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>58,93%</t>
+    <t>59,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>81,64%</t>
+    <t>81,31%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>36,04%</t>
+    <t>36,35%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>41,07%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -151,7 +151,7 @@
     <t>98,34%</t>
   </si>
   <si>
-    <t>91,75%</t>
+    <t>91,57%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -160,36 +160,42 @@
     <t>99,35%</t>
   </si>
   <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
     <t>2,13%</t>
   </si>
   <si>
@@ -199,43 +205,49 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>93,73%</t>
+    <t>92,91%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>90,89%</t>
+    <t>92,18%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,37%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>7,09%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,99%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -244,7 +256,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -253,187 +265,181 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,83%</t>
+    <t>98,57%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,08%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
@@ -460,55 +466,55 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>90,79%</t>
+    <t>90,27%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>93,72%</t>
+    <t>93,19%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>94,68%</t>
+    <t>94,75%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>9,73%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>6,81%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>91,68%</t>
+    <t>92,0%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,07%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>95,78%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -517,13 +523,13 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>8,0%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,93%</t>
   </si>
   <si>
     <t>1,58%</t>
@@ -532,7 +538,7 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,22%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -550,7 +556,7 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>93,07%</t>
+    <t>92,64%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -559,10 +565,13 @@
     <t>99,47%</t>
   </si>
   <si>
+    <t>97,27%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>6,93%</t>
+    <t>7,36%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -571,7 +580,10 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -580,10 +592,7 @@
     <t>98,37%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>98,0%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -592,19 +601,16 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,0%</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4335B7B1-404A-4B6A-876D-2FEE8BF1EC11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BAAC58-FFDF-411F-815C-89202E193EC8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1623,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -1638,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -1662,7 +1668,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1677,7 +1683,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1692,7 +1698,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1760,10 +1766,10 @@
         <v>55486</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1775,10 +1781,10 @@
         <v>68809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1790,13 +1796,13 @@
         <v>124295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1817,13 @@
         <v>834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1826,13 +1832,13 @@
         <v>1793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1841,13 +1847,13 @@
         <v>2627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1921,13 @@
         <v>187689</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -1930,13 +1936,13 @@
         <v>264102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>450</v>
@@ -1945,13 +1951,13 @@
         <v>451793</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,13 +1972,13 @@
         <v>2960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1981,13 +1987,13 @@
         <v>2660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -1996,13 +2002,13 @@
         <v>5619</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2064,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F165577-9BBE-4ADC-BFCA-A28F5086397B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281A19EE-4800-46BA-A76A-737D0EE767AA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2096,7 +2102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2206,7 +2212,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -2221,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -2236,7 +2242,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -2260,7 +2266,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2275,7 +2281,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2290,7 +2296,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,10 +2364,10 @@
         <v>68315</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2376,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -2388,10 +2394,10 @@
         <v>143923</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2409,13 +2415,13 @@
         <v>1007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2430,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2439,13 +2445,13 @@
         <v>1007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,7 +2522,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2531,7 +2537,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -2546,7 +2552,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2570,7 +2576,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2585,7 +2591,7 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2600,7 +2606,7 @@
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2677,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -2686,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -2701,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -2725,7 +2731,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2740,7 +2746,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2755,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2817,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2826,7 +2832,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -2838,10 +2844,10 @@
         <v>120892</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2853,10 +2859,10 @@
         <v>215865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2880,7 +2886,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2889,13 +2895,13 @@
         <v>1077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2904,13 +2910,13 @@
         <v>1077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,10 +2984,10 @@
         <v>349115</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -2993,10 +2999,10 @@
         <v>433445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3008,10 +3014,10 @@
         <v>782561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3029,13 +3035,13 @@
         <v>1007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3044,13 +3050,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3059,13 +3065,13 @@
         <v>2083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3127,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794E2168-9CE3-4AF6-A430-1EC2C58D68E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75B71E-D064-49A4-A8CA-FF9DC782C521}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3159,7 +3165,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3269,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -3284,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3299,7 +3305,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3323,7 +3329,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3338,7 +3344,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3353,7 +3359,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,10 +3427,10 @@
         <v>57267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3436,10 +3442,10 @@
         <v>70604</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3451,10 +3457,10 @@
         <v>127873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3472,13 +3478,13 @@
         <v>1025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3487,13 +3493,13 @@
         <v>977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3502,13 +3508,13 @@
         <v>2001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,10 +3582,10 @@
         <v>93606</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3591,10 +3597,10 @@
         <v>117558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3606,13 +3612,13 @@
         <v>211163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3633,13 @@
         <v>2367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3642,13 +3648,13 @@
         <v>1016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3657,13 +3663,13 @@
         <v>3384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3740,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3749,7 +3755,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -3764,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -3788,7 +3794,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3803,7 +3809,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3818,7 +3824,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3880,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3886,10 +3892,10 @@
         <v>68071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3904,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3916,10 +3922,10 @@
         <v>179653</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3937,13 +3943,13 @@
         <v>964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3958,7 +3964,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3967,13 +3973,13 @@
         <v>964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4047,13 @@
         <v>306836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>323</v>
@@ -4056,10 +4062,10 @@
         <v>372275</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4071,13 +4077,13 @@
         <v>679110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4098,13 @@
         <v>4355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4107,13 +4113,13 @@
         <v>1993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4122,13 +4128,13 @@
         <v>6349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,7 +4190,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E55064FE-216B-4FCA-B123-2654A45660A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1077CBB2-3D40-42CD-BDE9-B7D6760E468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA215FAD-B6A4-411F-AF6A-13E727C9F817}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7445E4B8-DEA3-4587-92C8-2389E61F5387}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,7 +76,7 @@
     <t>78,47%</t>
   </si>
   <si>
-    <t>18,69%</t>
+    <t>19,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>91,2%</t>
   </si>
   <si>
-    <t>63,65%</t>
+    <t>63,91%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>59,24%</t>
+    <t>53,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,25 +103,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>81,31%</t>
+    <t>80,38%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>36,35%</t>
+    <t>36,09%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>40,76%</t>
+    <t>46,37%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,84%</t>
@@ -145,13 +145,13 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>91,57%</t>
+    <t>91,15%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -160,13 +160,13 @@
     <t>99,35%</t>
   </si>
   <si>
-    <t>96,47%</t>
+    <t>96,44%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>8,43%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -175,10 +175,10 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -205,49 +205,43 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>92,91%</t>
+    <t>93,92%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>92,18%</t>
+    <t>90,9%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,09%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>9,1%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>5,61%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -256,7 +250,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,32%</t>
+    <t>97,31%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -265,7 +259,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,51%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -274,7 +271,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>4,36%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -283,13 +280,16 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>2,49%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -319,7 +319,7 @@
     <t>98,55%</t>
   </si>
   <si>
-    <t>92,02%</t>
+    <t>92,52%</t>
   </si>
   <si>
     <t>97,34%</t>
@@ -328,13 +328,13 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>96,24%</t>
+    <t>96,49%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,98%</t>
+    <t>7,48%</t>
   </si>
   <si>
     <t>2,66%</t>
@@ -343,7 +343,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>97,94%</t>
@@ -388,13 +388,13 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>95,92%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>97,23%</t>
+    <t>97,5%</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -403,22 +403,25 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>98,54%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,57%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -430,10 +433,13 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,46%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -442,7 +448,7 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2015 (Tasa respuesta: 9,67%)</t>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -466,55 +472,55 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>90,27%</t>
+    <t>91,22%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>93,19%</t>
+    <t>93,17%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>94,75%</t>
+    <t>95,31%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>9,73%</t>
+    <t>8,78%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>6,81%</t>
+    <t>6,83%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>5,25%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>92,0%</t>
+    <t>91,75%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>95,07%</t>
+    <t>96,43%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>95,25%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -523,13 +529,13 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>8,0%</t>
+    <t>8,25%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>1,58%</t>
@@ -538,7 +544,7 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>4,75%</t>
   </si>
   <si>
     <t>97,26%</t>
@@ -556,7 +562,7 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>92,64%</t>
+    <t>91,89%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -565,13 +571,13 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,27%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>7,36%</t>
+    <t>8,11%</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -580,37 +586,31 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>2,65%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BAAC58-FFDF-411F-815C-89202E193EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C07C647-52E3-4FC2-BF2C-F5DB55BE004B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1802,7 +1802,7 @@
         <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1817,13 @@
         <v>834</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1832,13 +1832,13 @@
         <v>1793</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1847,13 +1847,13 @@
         <v>2627</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1921,13 @@
         <v>187689</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -1936,13 +1936,13 @@
         <v>264102</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>450</v>
@@ -1951,13 +1951,13 @@
         <v>451793</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1972,13 @@
         <v>2960</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1987,13 +1987,13 @@
         <v>2660</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2002,10 +2002,10 @@
         <v>5619</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>83</v>
@@ -2085,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281A19EE-4800-46BA-A76A-737D0EE767AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E86E7B-3ED2-4516-AF10-8BE7A9FC98D0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2987,7 +2987,7 @@
         <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -2999,10 +2999,10 @@
         <v>433445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3014,10 +3014,10 @@
         <v>782561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3035,13 +3035,13 @@
         <v>1007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3050,13 +3050,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3065,13 +3065,13 @@
         <v>2083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75B71E-D064-49A4-A8CA-FF9DC782C521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588CB2AA-AF8E-491B-ABA5-094C9C060AFF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3275,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -3290,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3305,7 +3305,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3329,7 +3329,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,10 +3427,10 @@
         <v>57267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3442,10 +3442,10 @@
         <v>70604</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3457,10 +3457,10 @@
         <v>127873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3478,13 +3478,13 @@
         <v>1025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3493,13 +3493,13 @@
         <v>977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3508,13 +3508,13 @@
         <v>2001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,10 +3582,10 @@
         <v>93606</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3597,10 +3597,10 @@
         <v>117558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3612,13 +3612,13 @@
         <v>211163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3633,13 @@
         <v>2367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3648,13 +3648,13 @@
         <v>1016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3663,13 +3663,13 @@
         <v>3384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3740,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3755,7 +3755,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -3770,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -3794,7 +3794,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +3892,10 @@
         <v>68071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3910,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3922,10 +3922,10 @@
         <v>179653</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3943,13 +3943,13 @@
         <v>964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3973,13 +3973,13 @@
         <v>964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4047,13 @@
         <v>306836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>323</v>
@@ -4062,10 +4062,10 @@
         <v>372275</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4077,13 +4077,13 @@
         <v>679110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4098,13 @@
         <v>4355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4113,7 +4113,7 @@
         <v>1993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -4128,7 +4128,7 @@
         <v>6349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>189</v>

--- a/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1077CBB2-3D40-42CD-BDE9-B7D6760E468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D21997B-CEC5-4239-8CCF-FFC5472C6C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7445E4B8-DEA3-4587-92C8-2389E61F5387}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{496746C6-A6EF-40A1-ADB2-CAC5166DCAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>19,62%</t>
+    <t>18,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,13 +85,13 @@
     <t>91,2%</t>
   </si>
   <si>
-    <t>63,91%</t>
+    <t>63,96%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>53,63%</t>
+    <t>58,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,19 +103,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>80,38%</t>
+    <t>81,64%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>36,09%</t>
+    <t>36,04%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>46,37%</t>
+    <t>41,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -151,7 +151,7 @@
     <t>98,34%</t>
   </si>
   <si>
-    <t>91,15%</t>
+    <t>91,75%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -160,13 +160,13 @@
     <t>99,35%</t>
   </si>
   <si>
-    <t>96,44%</t>
+    <t>96,39%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>8,85%</t>
+    <t>8,25%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -175,7 +175,7 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -184,18 +184,12 @@
     <t>94,97%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
     <t>97,87%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
     <t>2,13%</t>
   </si>
   <si>
@@ -205,43 +199,43 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>93,92%</t>
+    <t>93,73%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>90,9%</t>
+    <t>90,89%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>94,37%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>6,08%</t>
+    <t>6,27%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>9,1%</t>
+    <t>9,11%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>5,61%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>95,64%</t>
+    <t>95,99%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -250,7 +244,7 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>97,31%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>99,68%</t>
@@ -259,10 +253,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -271,7 +265,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -280,16 +274,16 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -319,7 +313,7 @@
     <t>98,55%</t>
   </si>
   <si>
-    <t>92,52%</t>
+    <t>93,91%</t>
   </si>
   <si>
     <t>97,34%</t>
@@ -328,13 +322,13 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>96,49%</t>
+    <t>96,45%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,48%</t>
+    <t>6,09%</t>
   </si>
   <si>
     <t>2,66%</t>
@@ -343,7 +337,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,51%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>97,94%</t>
@@ -388,13 +382,10 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -403,214 +394,217 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C07C647-52E3-4FC2-BF2C-F5DB55BE004B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09879171-479C-4799-B00D-844EBD2A47B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1629,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -1644,7 +1638,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -1668,7 +1662,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1683,7 +1677,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1698,7 +1692,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1748,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1766,10 +1760,10 @@
         <v>55486</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1781,10 +1775,10 @@
         <v>68809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1796,10 +1790,10 @@
         <v>124295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>39</v>
@@ -1817,13 +1811,13 @@
         <v>834</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1832,13 +1826,13 @@
         <v>1793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1847,13 +1841,13 @@
         <v>2627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1915,13 @@
         <v>187689</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -1936,13 +1930,13 @@
         <v>264102</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>450</v>
@@ -1951,13 +1945,13 @@
         <v>451793</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1966,13 @@
         <v>2960</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1987,13 +1981,13 @@
         <v>2660</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2002,13 +1996,13 @@
         <v>5619</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2058,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E86E7B-3ED2-4516-AF10-8BE7A9FC98D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CF38D-3061-4045-94B3-FC23D4C7C3FA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2102,7 +2096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2212,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -2227,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -2242,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -2266,7 +2260,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2281,7 +2275,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2296,7 +2290,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,10 +2358,10 @@
         <v>68315</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2382,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
@@ -2394,10 +2388,10 @@
         <v>143923</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2415,13 +2409,13 @@
         <v>1007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2436,7 +2430,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2445,13 +2439,13 @@
         <v>1007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2537,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
@@ -2552,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2576,7 +2570,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2591,7 +2585,7 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2606,7 +2600,7 @@
         <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -2692,7 +2686,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -2707,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -2731,7 +2725,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2746,7 +2740,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2761,7 +2755,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,7 +2811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2832,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -2844,10 +2838,10 @@
         <v>120892</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -2859,10 +2853,10 @@
         <v>215865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2886,7 +2880,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2895,13 +2889,13 @@
         <v>1077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2910,13 +2904,13 @@
         <v>1077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,10 +2978,10 @@
         <v>349115</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -2999,10 +2993,10 @@
         <v>433445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3014,10 +3008,10 @@
         <v>782561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3035,13 +3029,13 @@
         <v>1007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3050,13 +3044,13 @@
         <v>1077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3065,13 +3059,13 @@
         <v>2083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,7 +3121,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588CB2AA-AF8E-491B-ABA5-094C9C060AFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2231527-7691-4B79-ADCA-28F532B01E8A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3275,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -3290,7 +3284,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3305,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3329,7 +3323,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3344,7 +3338,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3359,7 +3353,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,10 +3421,10 @@
         <v>57267</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3442,10 +3436,10 @@
         <v>70604</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3457,10 +3451,10 @@
         <v>127873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3478,13 +3472,13 @@
         <v>1025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3493,13 +3487,13 @@
         <v>977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3508,13 +3502,13 @@
         <v>2001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,10 +3576,10 @@
         <v>93606</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3597,10 +3591,10 @@
         <v>117558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3612,13 +3606,13 @@
         <v>211163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3627,13 @@
         <v>2367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3648,13 +3642,13 @@
         <v>1016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3663,13 +3657,13 @@
         <v>3384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
@@ -3755,7 +3749,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
@@ -3770,7 +3764,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>26</v>
@@ -3794,7 +3788,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3809,7 +3803,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3824,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3874,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3892,10 +3886,10 @@
         <v>68071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3910,7 +3904,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -3922,10 +3916,10 @@
         <v>179653</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3943,13 +3937,13 @@
         <v>964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3964,7 +3958,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3973,13 +3967,13 @@
         <v>964</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4041,13 @@
         <v>306836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>323</v>
@@ -4062,10 +4056,10 @@
         <v>372275</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -4077,13 +4071,13 @@
         <v>679110</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4092,13 @@
         <v>4355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4113,13 +4107,13 @@
         <v>1993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4128,13 +4122,13 @@
         <v>6349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4184,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D21997B-CEC5-4239-8CCF-FFC5472C6C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46205DB6-BBEB-4D63-8A24-51BC547FEA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{496746C6-A6EF-40A1-ADB2-CAC5166DCAB7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4162130F-BCAB-494B-86EB-04C4FE63ADEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="166">
   <si>
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2007 (Tasa respuesta: 7,0%)</t>
   </si>
@@ -67,108 +67,87 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>21,53%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
     <t>2,31%</t>
   </si>
   <si>
@@ -178,7 +157,7 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -292,52 +271,28 @@
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2012 (Tasa respuesta: 10,97%)</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>97,94%</t>
@@ -439,58 +394,34 @@
     <t>Porcentaje de medicinas para bajar el colesterol recetados en 2016 (Tasa respuesta: 9,67%)</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>97,53%</t>
@@ -1016,8 +947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09879171-479C-4799-B00D-844EBD2A47B1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF59B8F-3B21-4927-A849-8390DC537F0F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1134,10 +1065,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>4339</v>
+        <v>39606</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1149,10 +1080,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>8982</v>
+        <v>56667</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1164,10 +1095,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N4" s="7">
-        <v>13322</v>
+        <v>96273</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1236,10 +1167,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>5529</v>
+        <v>40796</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1251,10 +1182,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>9849</v>
+        <v>57534</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -1266,10 +1197,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="N6" s="7">
-        <v>15379</v>
+        <v>98330</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -1289,49 +1220,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>35266</v>
+        <v>55298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>47685</v>
+        <v>87992</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="N7" s="7">
-        <v>82951</v>
+        <v>143290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,19 +1271,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1364,25 +1295,25 @@
         <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7">
-        <v>35266</v>
+        <v>56233</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -1406,10 +1337,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I9" s="7">
-        <v>47685</v>
+        <v>87992</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1421,10 +1352,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>82951</v>
+        <v>144225</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1438,55 +1369,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>55298</v>
+        <v>37301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>87992</v>
+        <v>50634</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>143290</v>
+        <v>87934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,16 +1426,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>42</v>
@@ -1519,25 +1450,25 @@
         <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>935</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>56233</v>
+        <v>37301</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -1561,10 +1492,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>87992</v>
+        <v>50634</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1576,10 +1507,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="N12" s="7">
-        <v>144225</v>
+        <v>87934</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -1593,55 +1524,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>37301</v>
+        <v>55486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>65</v>
+      </c>
+      <c r="I13" s="7">
+        <v>68809</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="7">
-        <v>52</v>
-      </c>
-      <c r="I13" s="7">
-        <v>50634</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7">
-        <v>87934</v>
+        <v>124295</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,49 +1581,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2627</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
-        <v>37301</v>
+        <v>56320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -1716,10 +1647,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>50634</v>
+        <v>70602</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -1731,10 +1662,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="N15" s="7">
-        <v>87934</v>
+        <v>126922</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1748,55 +1679,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>194</v>
+      </c>
+      <c r="D16" s="7">
+        <v>187689</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>256</v>
+      </c>
+      <c r="I16" s="7">
+        <v>264102</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="7">
+        <v>450</v>
+      </c>
+      <c r="N16" s="7">
+        <v>451793</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="7">
-        <v>55486</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="P16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="I16" s="7">
-        <v>68809</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>128</v>
-      </c>
-      <c r="N16" s="7">
-        <v>124295</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,49 +1736,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>834</v>
+        <v>2960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1793</v>
+        <v>2660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>2627</v>
+        <v>5619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="D18" s="7">
-        <v>56320</v>
+        <v>190649</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -1871,10 +1802,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="I18" s="7">
-        <v>70602</v>
+        <v>266762</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -1886,10 +1817,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>131</v>
+        <v>456</v>
       </c>
       <c r="N18" s="7">
-        <v>126922</v>
+        <v>457412</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -1902,171 +1833,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>194</v>
-      </c>
-      <c r="D19" s="7">
-        <v>187689</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="7">
-        <v>256</v>
-      </c>
-      <c r="I19" s="7">
-        <v>264102</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="7">
-        <v>450</v>
-      </c>
-      <c r="N19" s="7">
-        <v>451793</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2960</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2660</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5619</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>197</v>
-      </c>
-      <c r="D21" s="7">
-        <v>190649</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>266762</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>456</v>
-      </c>
-      <c r="N21" s="7">
-        <v>457412</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2079,8 +1854,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CF38D-3061-4045-94B3-FC23D4C7C3FA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57281465-969A-4D60-A535-3CCD419AAFF5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2096,7 +1871,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2197,49 +1972,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D4" s="7">
-        <v>14812</v>
+        <v>83127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>19401</v>
+        <v>95010</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="N4" s="7">
-        <v>34214</v>
+        <v>178137</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,19 +2023,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2272,25 +2047,25 @@
         <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,10 +2074,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7">
-        <v>14812</v>
+        <v>84134</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -2314,10 +2089,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>19401</v>
+        <v>95010</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -2329,10 +2104,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="N6" s="7">
-        <v>34214</v>
+        <v>179144</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -2352,49 +2127,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>68315</v>
+        <v>102230</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="I7" s="7">
-        <v>75609</v>
+        <v>118709</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="N7" s="7">
-        <v>143923</v>
+        <v>220940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,19 +2178,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2427,25 +2202,25 @@
         <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,10 +2229,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
-        <v>69322</v>
+        <v>102230</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -2469,10 +2244,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="I9" s="7">
-        <v>75609</v>
+        <v>118709</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -2484,10 +2259,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="N9" s="7">
-        <v>144930</v>
+        <v>220940</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -2501,52 +2276,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7">
+        <v>68784</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>88</v>
+      </c>
+      <c r="I10" s="7">
+        <v>98834</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7">
-        <v>102230</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7">
-        <v>107</v>
-      </c>
-      <c r="I10" s="7">
-        <v>118709</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>220940</v>
+        <v>167618</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2567,10 +2342,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2582,10 +2357,10 @@
         <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2597,10 +2372,10 @@
         <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>102230</v>
+        <v>68784</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -2624,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>118709</v>
+        <v>98834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -2639,10 +2414,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>220940</v>
+        <v>167618</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -2656,55 +2431,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7">
-        <v>68784</v>
+        <v>94973</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="7">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>98834</v>
+        <v>120892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="N13" s="7">
-        <v>167618</v>
+        <v>215865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,40 +2497,40 @@
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,10 +2539,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7">
-        <v>68784</v>
+        <v>94973</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -2779,10 +2554,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>98834</v>
+        <v>121969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2794,10 +2569,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="N15" s="7">
-        <v>167618</v>
+        <v>216942</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -2811,52 +2586,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="D16" s="7">
-        <v>94973</v>
+        <v>349115</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>398</v>
       </c>
       <c r="I16" s="7">
-        <v>120892</v>
+        <v>433446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>200</v>
+        <v>712</v>
       </c>
       <c r="N16" s="7">
-        <v>215865</v>
+        <v>782561</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2868,19 +2643,19 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2889,28 +2664,28 @@
         <v>1077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1077</v>
+        <v>2083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>315</v>
       </c>
       <c r="D18" s="7">
-        <v>94973</v>
+        <v>350122</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -2934,10 +2709,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>399</v>
       </c>
       <c r="I18" s="7">
-        <v>121969</v>
+        <v>434523</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -2949,10 +2724,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>201</v>
+        <v>714</v>
       </c>
       <c r="N18" s="7">
-        <v>216942</v>
+        <v>784644</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -2965,171 +2740,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>314</v>
-      </c>
-      <c r="D19" s="7">
-        <v>349115</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>398</v>
-      </c>
-      <c r="I19" s="7">
-        <v>433445</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>712</v>
-      </c>
-      <c r="N19" s="7">
-        <v>782561</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1007</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1077</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2083</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>315</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350122</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>399</v>
-      </c>
-      <c r="I21" s="7">
-        <v>434522</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>714</v>
-      </c>
-      <c r="N21" s="7">
-        <v>784644</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3142,8 +2761,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2231527-7691-4B79-ADCA-28F532B01E8A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB1F37E-F466-41C6-8E3C-C39EA51EF25A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3159,7 +2778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3260,49 +2879,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>16527</v>
+        <v>73795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I4" s="7">
-        <v>12124</v>
+        <v>82728</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N4" s="7">
-        <v>28651</v>
+        <v>156524</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,49 +2930,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7">
-        <v>16527</v>
+        <v>74820</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -3377,10 +2996,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>12124</v>
+        <v>83705</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -3392,10 +3011,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="N6" s="7">
-        <v>28651</v>
+        <v>158525</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -3415,49 +3034,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7">
-        <v>57267</v>
+        <v>93606</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I7" s="7">
-        <v>70604</v>
+        <v>117558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="N7" s="7">
-        <v>127873</v>
+        <v>211163</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,49 +3085,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1025</v>
+        <v>2367</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>977</v>
+        <v>1016</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2001</v>
+        <v>3384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
-        <v>58292</v>
+        <v>95973</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -3532,10 +3151,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>71581</v>
+        <v>118574</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3547,10 +3166,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="N9" s="7">
-        <v>129874</v>
+        <v>214547</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -3564,55 +3183,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>93606</v>
+        <v>71363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>117558</v>
+        <v>60408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N10" s="7">
-        <v>211163</v>
+        <v>131771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,49 +3240,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2367</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>3384</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,10 +3291,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>95973</v>
+        <v>71363</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -3687,10 +3306,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>118574</v>
+        <v>60408</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -3702,10 +3321,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="N12" s="7">
-        <v>214547</v>
+        <v>131771</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -3719,55 +3338,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>71363</v>
+        <v>68071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>60408</v>
+        <v>111582</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="7">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="N13" s="7">
-        <v>131771</v>
+        <v>179653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,19 +3395,19 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3800,25 +3419,25 @@
         <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,10 +3446,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7">
-        <v>71363</v>
+        <v>69035</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -3842,10 +3461,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I15" s="7">
-        <v>60408</v>
+        <v>111582</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3857,10 +3476,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="N15" s="7">
-        <v>131771</v>
+        <v>180617</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -3874,55 +3493,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>68071</v>
+        <v>306836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="I16" s="7">
-        <v>111582</v>
+        <v>372275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>164</v>
+        <v>629</v>
       </c>
       <c r="N16" s="7">
-        <v>179653</v>
+        <v>679110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,49 +3550,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>964</v>
+        <v>4355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>964</v>
+        <v>6349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,10 +3601,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="D18" s="7">
-        <v>69035</v>
+        <v>311191</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -3997,10 +3616,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>93</v>
+        <v>325</v>
       </c>
       <c r="I18" s="7">
-        <v>111582</v>
+        <v>374268</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -4012,10 +3631,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>165</v>
+        <v>635</v>
       </c>
       <c r="N18" s="7">
-        <v>180617</v>
+        <v>685459</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -4028,171 +3647,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>306</v>
-      </c>
-      <c r="D19" s="7">
-        <v>306836</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="7">
-        <v>323</v>
-      </c>
-      <c r="I19" s="7">
-        <v>372275</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>629</v>
-      </c>
-      <c r="N19" s="7">
-        <v>679110</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4355</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1993</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6349</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>310</v>
-      </c>
-      <c r="D21" s="7">
-        <v>311191</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>325</v>
-      </c>
-      <c r="I21" s="7">
-        <v>374268</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>635</v>
-      </c>
-      <c r="N21" s="7">
-        <v>685459</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>82</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
